--- a/students_grades.xlsx
+++ b/students_grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DA3E72-3803-4822-9AFA-71F024FAB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DEDFC-58D1-4724-A378-3DEDB12E7D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2592" windowWidth="17280" windowHeight="9420" xr2:uid="{4B66C4CA-9353-4C59-9856-AC51AF199806}"/>
+    <workbookView xWindow="2952" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{4B66C4CA-9353-4C59-9856-AC51AF199806}"/>
   </bookViews>
   <sheets>
     <sheet name="student_100_records" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A1A6D6-AAA6-4C14-9BFF-150BB7180667}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
